--- a/student.xlsx
+++ b/student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITS\OneDrive\Desktop\VANDANA\edha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITS\Downloads\Footballapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>student images\rakshith.jpg</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Very good</t>
   </si>
 </sst>
 </file>
@@ -481,19 +487,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="4" max="4" width="71.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +513,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -520,8 +530,11 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -534,8 +547,11 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -548,8 +564,11 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -562,8 +581,11 @@
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -576,8 +598,11 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -590,8 +615,11 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -604,8 +632,11 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -618,8 +649,11 @@
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -632,8 +666,11 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -645,6 +682,9 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
